--- a/DateBase/orders/Dang Nguyen_2025-4-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-1.xlsx
@@ -524,6 +524,9 @@
       <c r="C11" t="str">
         <v>436_木百合_leucadendron _undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -585,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0607515321535363350</v>
+        <v>0607515321535363352</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-1.xlsx
@@ -525,7 +525,7 @@
         <v>436_木百合_leucadendron _undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0607515321535363352</v>
+        <v>06075153215353633525</v>
       </c>
     </row>
   </sheetData>
